--- a/aoiConditions/train2P2Block3Test.xlsx
+++ b/aoiConditions/train2P2Block3Test.xlsx
@@ -34,28 +34,28 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
   </si>
   <si>
     <t>trainingaudio/15_kopota3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata2.wav</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
   </si>
   <si>
-    <t>pngimages/09_plane.png</t>
+    <t>pngimages/07_suitcase.png</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
         <v>12</v>
       </c>
       <c r="E2">
+        <v>-0.5</v>
+      </c>
+      <c r="F2">
         <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/aoiConditions/train2P2Block3Test.xlsx
+++ b/aoiConditions/train2P2Block3Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>audioTrue</t>
   </si>
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -46,10 +46,7 @@
     <t>pngimages/08_bell.png</t>
   </si>
   <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
+    <t>train2P2</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
@@ -450,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
@@ -467,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.5</v>
